--- a/MDA-MB-231-Cell-Count-Data/GH1909_150nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_150nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150:C169"/>
+      <selection activeCell="B1" sqref="B1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1861</v>
+        <v>1461.110227812055</v>
       </c>
       <c r="C1">
-        <v>1985</v>
+        <v>1657.101914545879</v>
       </c>
       <c r="D1">
-        <v>1835</v>
+        <v>1511.6948938321536</v>
       </c>
       <c r="E1">
-        <v>2122</v>
+        <v>1744.1657760090959</v>
       </c>
       <c r="F1">
-        <v>1973</v>
+        <v>1569.4155262201768</v>
       </c>
       <c r="G1">
-        <v>2089</v>
+        <v>1645.7633977397011</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -376,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1997</v>
+        <v>1567.8866872330327</v>
       </c>
       <c r="C2">
-        <v>2140</v>
+        <v>1786.4977819285546</v>
       </c>
       <c r="D2">
-        <v>1933</v>
+        <v>1592.4284630940344</v>
       </c>
       <c r="E2">
-        <v>2178</v>
+        <v>1790.1946560545764</v>
       </c>
       <c r="F2">
-        <v>1989</v>
+        <v>1582.1426668281458</v>
       </c>
       <c r="G2">
-        <v>2130</v>
+        <v>1678.0641633248267</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -399,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2072</v>
+        <v>1626.7707641196014</v>
       </c>
       <c r="C3">
-        <v>2218</v>
+        <v>1851.6131216437075</v>
       </c>
       <c r="D3">
-        <v>1979</v>
+        <v>1630.3238119312437</v>
       </c>
       <c r="E3">
-        <v>2254</v>
+        <v>1852.6624218305856</v>
       </c>
       <c r="F3">
-        <v>2051</v>
+        <v>1631.4603366840258</v>
       </c>
       <c r="G3">
-        <v>2175</v>
+        <v>1713.5162231133795</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -422,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2178</v>
+        <v>1709.9935927859517</v>
       </c>
       <c r="C4">
-        <v>2278</v>
+        <v>1901.7018445015176</v>
       </c>
       <c r="D4">
-        <v>2045</v>
+        <v>1684.6953993933266</v>
       </c>
       <c r="E4">
-        <v>2336</v>
+        <v>1920.0618533257532</v>
       </c>
       <c r="F4">
-        <v>2130</v>
+        <v>1694.3005934358725</v>
       </c>
       <c r="G4">
-        <v>2243</v>
+        <v>1767.0882245716368</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -445,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2259</v>
+        <v>1773.5883958234456</v>
       </c>
       <c r="C5">
-        <v>2379</v>
+        <v>1986.0178613121643</v>
       </c>
       <c r="D5">
-        <v>2114</v>
+        <v>1741.5384226491406</v>
       </c>
       <c r="E5">
-        <v>2428</v>
+        <v>1995.6807276861853</v>
       </c>
       <c r="F5">
-        <v>2213</v>
+        <v>1760.3226353397117</v>
       </c>
       <c r="G5">
-        <v>2284</v>
+        <v>1799.3889901567627</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -468,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2343</v>
+        <v>1839.5385619364024</v>
       </c>
       <c r="C6">
-        <v>2497</v>
+        <v>2084.525682932524</v>
       </c>
       <c r="D6">
-        <v>2220</v>
+        <v>1828.8624873609708</v>
       </c>
       <c r="E6">
-        <v>2539</v>
+        <v>2086.9165434906195</v>
       </c>
       <c r="F6">
-        <v>2288</v>
+        <v>1819.9811069395664</v>
       </c>
       <c r="G6">
-        <v>2455</v>
+        <v>1934.1068173532628</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2444</v>
+        <v>1918.8357854769815</v>
       </c>
       <c r="C7">
-        <v>2598</v>
+        <v>2168.8416997431705</v>
       </c>
       <c r="D7">
-        <v>2283</v>
+        <v>1880.7626390293226</v>
       </c>
       <c r="E7">
-        <v>2663</v>
+        <v>2188.8376350198978</v>
       </c>
       <c r="F7">
-        <v>2384</v>
+        <v>1896.3439505873805</v>
       </c>
       <c r="G7">
-        <v>2502</v>
+        <v>1971.1345242435289</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -514,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2535</v>
+        <v>1990.281798766018</v>
       </c>
       <c r="C8">
-        <v>2655</v>
+        <v>2216.4259864580899</v>
       </c>
       <c r="D8">
-        <v>2398</v>
+        <v>1975.501011122346</v>
       </c>
       <c r="E8">
-        <v>2759</v>
+        <v>2267.7442865264352</v>
       </c>
       <c r="F8">
-        <v>2484</v>
+        <v>1975.8885793871866</v>
       </c>
       <c r="G8">
-        <v>2580</v>
+        <v>2032.5847612103535</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -537,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2651</v>
+        <v>2081.355837683911</v>
       </c>
       <c r="C9">
-        <v>2770</v>
+        <v>2312.4293719355592</v>
       </c>
       <c r="D9">
-        <v>2503</v>
+        <v>2062.0012639029324</v>
       </c>
       <c r="E9">
-        <v>2890</v>
+        <v>2375.4189880613985</v>
       </c>
       <c r="F9">
-        <v>2551</v>
+        <v>2029.1834806830568</v>
       </c>
       <c r="G9">
-        <v>2709</v>
+        <v>2134.2139992708712</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2813</v>
+        <v>2208.5454437588987</v>
       </c>
       <c r="C10">
-        <v>2912</v>
+        <v>2430.9726826990427</v>
       </c>
       <c r="D10">
-        <v>2675</v>
+        <v>2203.6969160768454</v>
       </c>
       <c r="E10">
-        <v>3056</v>
+        <v>2511.8617396247869</v>
       </c>
       <c r="F10">
-        <v>2682</v>
+        <v>2133.3869444108032</v>
       </c>
       <c r="G10">
-        <v>2825</v>
+        <v>2225.6015311702513</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -583,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>3026</v>
+        <v>2375.7762221167536</v>
       </c>
       <c r="C11">
-        <v>3119</v>
+        <v>2603.7787765584867</v>
       </c>
       <c r="D11">
-        <v>2892</v>
+        <v>2382.4641051567241</v>
       </c>
       <c r="E11">
-        <v>3294</v>
+        <v>2707.4844798180784</v>
       </c>
       <c r="F11">
-        <v>2901</v>
+        <v>2307.5896814823786</v>
       </c>
       <c r="G11">
-        <v>3059</v>
+        <v>2409.9522420707253</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>3267</v>
+        <v>2564.9903891789272</v>
       </c>
       <c r="C12">
-        <v>3315</v>
+        <v>2767.4019378939993</v>
       </c>
       <c r="D12">
-        <v>3069</v>
+        <v>2528.2788169868554</v>
       </c>
       <c r="E12">
-        <v>3434</v>
+        <v>2822.5566799317794</v>
       </c>
       <c r="F12">
-        <v>3060</v>
+        <v>2434.0656412740705</v>
       </c>
       <c r="G12">
-        <v>3231</v>
+        <v>2545.4578928180822</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3472</v>
+        <v>2725.9401993355482</v>
       </c>
       <c r="C13">
-        <v>3479</v>
+        <v>2904.3111137053465</v>
       </c>
       <c r="D13">
-        <v>3216</v>
+        <v>2649.3791708796766</v>
       </c>
       <c r="E13">
-        <v>3674</v>
+        <v>3019.823308698124</v>
       </c>
       <c r="F13">
-        <v>3282</v>
+        <v>2610.6547172096402</v>
       </c>
       <c r="G13">
-        <v>3362</v>
+        <v>2648.6627779803134</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3721</v>
+        <v>2921.4353345989557</v>
       </c>
       <c r="C14">
-        <v>3777</v>
+        <v>3153.0851038991359</v>
       </c>
       <c r="D14">
-        <v>3438</v>
+        <v>2832.2654196157737</v>
       </c>
       <c r="E14">
-        <v>3874</v>
+        <v>3184.2121660034109</v>
       </c>
       <c r="F14">
-        <v>3485</v>
+        <v>2772.1303136732472</v>
       </c>
       <c r="G14">
-        <v>3575</v>
+        <v>2816.4691943127959</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3901</v>
+        <v>3062.7571191267207</v>
       </c>
       <c r="C15">
-        <v>3983</v>
+        <v>3325.0563857109501</v>
       </c>
       <c r="D15">
-        <v>3644</v>
+        <v>3001.9706774519718</v>
       </c>
       <c r="E15">
-        <v>4089</v>
+        <v>3360.9301876065947</v>
       </c>
       <c r="F15">
-        <v>3708</v>
+        <v>2949.5148358968149</v>
       </c>
       <c r="G15">
-        <v>3778</v>
+        <v>2976.3973751367116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -698,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3890</v>
+        <v>3054.1207878500236</v>
       </c>
       <c r="C16">
-        <v>4030</v>
+        <v>3364.292551949568</v>
       </c>
       <c r="D16">
-        <v>3740</v>
+        <v>3081.0566228513653</v>
       </c>
       <c r="E16">
-        <v>4239</v>
+        <v>3484.2218305855599</v>
       </c>
       <c r="F16">
-        <v>3910</v>
+        <v>3110.1949860724235</v>
       </c>
       <c r="G16">
-        <v>3932</v>
+        <v>3097.7222019686474</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -721,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>4131</v>
+        <v>3243.3349549121976</v>
       </c>
       <c r="C17">
-        <v>4138</v>
+        <v>3454.4522530936256</v>
       </c>
       <c r="D17">
-        <v>3853</v>
+        <v>3174.1473710819009</v>
       </c>
       <c r="E17">
-        <v>4316</v>
+        <v>3547.5115406480954</v>
       </c>
       <c r="F17">
-        <v>3976</v>
+        <v>3162.6944410802957</v>
       </c>
       <c r="G17">
-        <v>3983</v>
+        <v>3137.9012030623403</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>4145</v>
+        <v>3254.326649264357</v>
       </c>
       <c r="C18">
-        <v>4204</v>
+        <v>3509.5498482372168</v>
       </c>
       <c r="D18">
-        <v>3887</v>
+        <v>3202.1569767441861</v>
       </c>
       <c r="E18">
-        <v>4369</v>
+        <v>3591.0745878339962</v>
       </c>
       <c r="F18">
-        <v>3998</v>
+        <v>3180.1942594162529</v>
       </c>
       <c r="G18">
-        <v>4051</v>
+        <v>3191.4732045205978</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>4204</v>
+        <v>3300.6487897484576</v>
       </c>
       <c r="C19">
-        <v>4232</v>
+        <v>3532.9245855708614</v>
       </c>
       <c r="D19">
-        <v>3946</v>
+        <v>3250.7618806875635</v>
       </c>
       <c r="E19">
-        <v>4425</v>
+        <v>3637.1034678794767</v>
       </c>
       <c r="F19">
-        <v>4083</v>
+        <v>3247.8071938960884</v>
       </c>
       <c r="G19">
-        <v>4058</v>
+        <v>3196.9879693765947</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -790,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>4227</v>
+        <v>3318.7065733270051</v>
       </c>
       <c r="C20">
-        <v>4236</v>
+        <v>3536.2638337613821</v>
       </c>
       <c r="D20">
-        <v>3924</v>
+        <v>3232.6380182002022</v>
       </c>
       <c r="E20">
-        <v>4412</v>
+        <v>3626.4181921546333</v>
       </c>
       <c r="F20">
-        <v>4051</v>
+        <v>3222.3529126801504</v>
       </c>
       <c r="G20">
-        <v>4097</v>
+        <v>3227.7130878600074</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>4235</v>
+        <v>3324.987541528239</v>
       </c>
       <c r="C21">
-        <v>4221</v>
+        <v>3523.7416530469295</v>
       </c>
       <c r="D21">
-        <v>3931</v>
+        <v>3238.4047017189082</v>
       </c>
       <c r="E21">
-        <v>4408</v>
+        <v>3623.1304150085275</v>
       </c>
       <c r="F21">
-        <v>4047</v>
+        <v>3219.1711275281582</v>
       </c>
       <c r="G21">
-        <v>4114</v>
+        <v>3241.1060882245715</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>4220</v>
+        <v>3313.2107261509254</v>
       </c>
       <c r="C22">
-        <v>4238</v>
+        <v>3537.9334578566422</v>
       </c>
       <c r="D22">
-        <v>3971</v>
+        <v>3271.3571789686553</v>
       </c>
       <c r="E22">
-        <v>4387</v>
+        <v>3605.8695849914725</v>
       </c>
       <c r="F22">
-        <v>4088</v>
+        <v>3251.7844253360786</v>
       </c>
       <c r="G22">
-        <v>4113</v>
+        <v>3240.318264673715</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>4216</v>
+        <v>3310.0702420503085</v>
       </c>
       <c r="C23">
-        <v>4268</v>
+        <v>3562.9778192855474</v>
       </c>
       <c r="D23">
-        <v>3961</v>
+        <v>3263.1190596562187</v>
       </c>
       <c r="E23">
-        <v>4394</v>
+        <v>3611.6231949971575</v>
       </c>
       <c r="F23">
-        <v>4115</v>
+        <v>3273.2614751120263</v>
       </c>
       <c r="G23">
-        <v>4114</v>
+        <v>3241.1060882245715</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
